--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -2381,7 +2381,7 @@
         <v>128</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>129</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -401,7 +401,7 @@
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneCittadinanza.autoritaMittente</t>
+    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -419,6 +419,18 @@
     <t>nomeEnte</t>
   </si>
   <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -441,6 +453,18 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -499,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -508,7 +532,7 @@
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.9921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -2461,7 +2485,7 @@
         <v>137</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>129</v>
@@ -2481,7 +2505,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>129</v>
@@ -2510,6 +2534,86 @@
         <v>142</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -535,6 +541,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -556,45 +563,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -616,2005 +632,2308 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -50,7 +50,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.6</t>
+    <t>193.15</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -541,7 +541,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Esito accertamento di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.15</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Esito accertamento di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.15</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -633,2307 +636,2307 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -2441,7 +2441,7 @@
         <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>108</v>
@@ -2464,7 +2464,7 @@
         <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>108</v>
@@ -2487,7 +2487,7 @@
         <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>108</v>
@@ -2510,7 +2510,7 @@
         <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>108</v>
@@ -2533,7 +2533,7 @@
         <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>108</v>
@@ -2556,7 +2556,7 @@
         <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>108</v>
@@ -2579,7 +2579,7 @@
         <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>108</v>
@@ -2625,7 +2625,7 @@
         <v>124</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>108</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -194,6 +194,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -386,22 +392,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -532,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1084,7 +1090,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>38</v>
@@ -1176,7 +1182,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1291,7 +1297,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>38</v>
@@ -1363,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1380,7 +1386,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1389,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1400,19 +1406,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1423,19 +1429,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1446,19 +1452,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1469,19 +1475,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1492,19 +1498,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1515,19 +1521,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1538,19 +1544,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1561,19 +1567,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1584,19 +1590,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1613,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1636,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1659,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1676,7 +1682,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>97</v>
@@ -1685,10 +1691,10 @@
         <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1699,7 +1705,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>98</v>
@@ -1708,10 +1714,10 @@
         <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1722,7 +1728,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>99</v>
@@ -1731,10 +1737,10 @@
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1745,7 +1751,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>100</v>
@@ -1754,10 +1760,10 @@
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1768,7 +1774,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>101</v>
@@ -1777,10 +1783,10 @@
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1791,7 +1797,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>102</v>
@@ -1800,10 +1806,10 @@
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1814,7 +1820,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>103</v>
@@ -1823,10 +1829,10 @@
         <v>37</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1912,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2044,7 +2050,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>91</v>
@@ -2053,10 +2059,10 @@
         <v>37</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2067,7 +2073,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>92</v>
@@ -2076,10 +2082,10 @@
         <v>37</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2090,7 +2096,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>93</v>
@@ -2099,10 +2105,10 @@
         <v>37</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2113,7 +2119,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>94</v>
@@ -2122,10 +2128,10 @@
         <v>37</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2136,7 +2142,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>95</v>
@@ -2145,10 +2151,10 @@
         <v>37</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2159,7 +2165,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>96</v>
@@ -2168,10 +2174,10 @@
         <v>37</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2234,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2303,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2415,16 +2421,16 @@
         <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2438,16 +2444,16 @@
         <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2461,16 +2467,16 @@
         <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2510,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2579,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2625,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2648,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2671,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2694,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2717,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2740,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2763,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2786,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2809,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2832,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2855,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2878,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2901,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2918,24 +2924,93 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -2746,7 +2746,7 @@
         <v>130</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>110</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -2746,7 +2746,7 @@
         <v>130</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>110</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -538,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1320,7 +1344,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>38</v>
@@ -1343,7 +1367,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>38</v>
@@ -1366,7 +1390,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>38</v>
@@ -1389,10 +1413,10 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1409,16 +1433,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1429,19 +1453,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1452,19 +1476,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1475,19 +1499,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1498,19 +1522,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1521,19 +1545,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1544,19 +1568,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1567,19 +1591,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1590,19 +1614,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1613,19 +1637,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1660,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1683,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1706,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1729,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1752,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1775,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1798,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1821,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1844,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1867,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1890,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1913,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1936,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1959,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1982,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1981,19 +2005,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2028,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2051,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2074,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2097,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2120,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2143,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2166,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2189,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2212,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2235,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2258,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2281,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2304,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2327,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2350,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2373,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2396,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2419,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2442,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2465,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2488,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2511,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2534,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2557,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2580,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2579,16 +2603,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>119</v>
@@ -2602,7 +2626,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>120</v>
@@ -2611,7 +2635,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>121</v>
@@ -2625,7 +2649,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>122</v>
@@ -2634,10 +2658,10 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2672,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2695,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2718,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2741,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2764,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2787,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2810,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2833,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2856,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2855,16 +2879,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>143</v>
@@ -2878,16 +2902,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>145</v>
@@ -2901,16 +2925,16 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>147</v>
@@ -2924,16 +2948,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>149</v>
@@ -2947,16 +2971,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>151</v>
@@ -2970,7 +2994,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>152</v>
@@ -2979,7 +3003,7 @@
         <v>37</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>153</v>
@@ -2993,7 +3017,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>154</v>
@@ -3002,7 +3026,7 @@
         <v>37</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>155</v>
@@ -3011,6 +3035,98 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,6 +146,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -329,10 +335,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -562,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -930,7 +933,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
@@ -1022,7 +1025,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>38</v>
@@ -1137,7 +1140,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>38</v>
@@ -1229,7 +1232,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1436,7 +1439,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>38</v>
@@ -1508,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1525,7 +1528,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1534,7 +1537,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1545,19 +1548,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1571,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1594,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1617,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1640,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1663,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1683,7 +1686,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>101</v>
@@ -1692,10 +1695,10 @@
         <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>102</v>
@@ -1715,10 +1718,10 @@
         <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>103</v>
@@ -1738,10 +1741,10 @@
         <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1752,7 +1755,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>104</v>
@@ -1761,10 +1764,10 @@
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1778,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1801,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1824,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1847,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1870,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1893,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1916,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1939,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1962,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1982,19 +1985,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2008,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2031,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2054,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2077,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2100,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2123,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2146,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2169,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2192,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2215,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2238,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2261,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2284,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2307,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2327,7 +2330,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>105</v>
@@ -2336,10 +2339,10 @@
         <v>37</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2350,7 +2353,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>106</v>
@@ -2359,10 +2362,10 @@
         <v>37</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2376,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2399,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2422,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2445,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2468,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2491,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2514,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2537,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2560,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2583,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C88" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2606,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2629,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2652,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2675,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2698,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2721,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2744,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2767,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2790,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2813,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2836,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2859,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2882,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2905,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2928,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2951,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2974,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2994,19 +2997,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3020,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3040,19 +3043,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3063,19 +3066,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3086,19 +3089,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3109,24 +3112,93 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E111" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -101,6 +101,12 @@
     <t>dataAccertamento</t>
   </si>
   <si>
+    <t>Data provvedimento Sindaco</t>
+  </si>
+  <si>
+    <t>dataProvvedimentoSindaco</t>
+  </si>
+  <si>
     <t>Esito accertamento</t>
   </si>
   <si>
@@ -216,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -565,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -858,19 +870,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -881,16 +893,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
@@ -904,16 +916,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
@@ -927,16 +939,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -950,16 +962,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -973,7 +985,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -982,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -996,7 +1008,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -1005,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -1019,7 +1031,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
@@ -1028,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -1042,16 +1054,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -1065,16 +1077,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
@@ -1088,16 +1100,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -1111,16 +1123,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1134,16 +1146,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1157,16 +1169,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1180,7 +1192,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -1189,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1203,7 +1215,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
@@ -1212,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1226,16 +1238,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1249,16 +1261,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1272,16 +1284,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1295,16 +1307,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1318,16 +1330,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1341,16 +1353,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1364,16 +1376,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1387,16 +1399,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1410,16 +1422,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1433,16 +1445,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1456,16 +1468,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1479,16 +1491,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1502,7 +1514,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1511,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1525,7 +1537,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1534,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1548,19 +1560,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1571,19 +1583,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1606,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1629,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1652,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1675,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1698,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1721,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1744,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1767,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1790,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1813,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1836,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1859,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1882,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1905,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1928,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1951,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1974,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1985,19 +1997,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2008,19 +2020,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2043,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2066,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2077,19 +2089,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2112,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2123,19 +2135,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2158,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2181,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2204,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2227,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2250,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2273,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2296,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2319,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2342,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2365,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2388,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2411,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2434,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2457,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2480,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2503,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2526,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2549,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2572,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2595,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2618,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2641,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2664,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2675,19 +2687,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2698,19 +2710,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2721,19 +2733,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2756,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2767,19 +2779,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2790,19 +2802,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2813,19 +2825,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2836,19 +2848,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2859,19 +2871,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2882,19 +2894,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2905,19 +2917,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2928,19 +2940,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2963,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2974,19 +2986,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2997,19 +3009,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3032,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3055,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3078,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3101,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3112,19 +3124,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3135,19 +3147,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3170,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3181,24 +3193,116 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -577,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1954,7 +1960,7 @@
         <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>39</v>
@@ -1963,7 +1969,7 @@
         <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1977,7 +1983,7 @@
         <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>39</v>
@@ -1986,7 +1992,7 @@
         <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2000,7 +2006,7 @@
         <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>39</v>
@@ -2009,7 +2015,7 @@
         <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2023,7 +2029,7 @@
         <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>39</v>
@@ -2032,7 +2038,7 @@
         <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2046,7 +2052,7 @@
         <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>39</v>
@@ -2055,7 +2061,7 @@
         <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2069,7 +2075,7 @@
         <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>39</v>
@@ -2078,7 +2084,7 @@
         <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2092,7 +2098,7 @@
         <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>39</v>
@@ -2101,7 +2107,7 @@
         <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2115,7 +2121,7 @@
         <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>39</v>
@@ -2124,7 +2130,7 @@
         <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2138,7 +2144,7 @@
         <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>39</v>
@@ -2147,7 +2153,7 @@
         <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2161,7 +2167,7 @@
         <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>39</v>
@@ -2170,7 +2176,7 @@
         <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2184,7 +2190,7 @@
         <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>39</v>
@@ -2193,7 +2199,7 @@
         <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2371,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2463,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2549,7 +2555,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>112</v>
@@ -2558,10 +2564,10 @@
         <v>39</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2595,7 +2601,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>114</v>
@@ -2604,10 +2610,10 @@
         <v>39</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2618,7 +2624,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>115</v>
@@ -2627,10 +2633,10 @@
         <v>39</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2641,7 +2647,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>116</v>
@@ -2650,10 +2656,10 @@
         <v>39</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2664,7 +2670,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>117</v>
@@ -2673,10 +2679,10 @@
         <v>39</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2687,7 +2693,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>118</v>
@@ -2696,10 +2702,10 @@
         <v>39</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C93" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2739,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2762,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2782,16 +2788,16 @@
         <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2805,16 +2811,16 @@
         <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2900,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2917,19 +2923,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2963,19 +2969,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3009,19 +3015,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3032,19 +3038,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3055,19 +3061,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3078,19 +3084,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3101,19 +3107,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3124,19 +3130,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3147,19 +3153,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3170,19 +3176,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3193,19 +3199,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3216,19 +3222,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3239,19 +3245,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3262,19 +3268,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3285,24 +3291,70 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="B120" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -583,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3107,19 +3113,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3130,16 +3136,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>152</v>
@@ -3153,7 +3159,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>153</v>
@@ -3162,7 +3168,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>154</v>
@@ -3176,7 +3182,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>155</v>
@@ -3185,7 +3191,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>156</v>
@@ -3199,7 +3205,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>157</v>
@@ -3208,7 +3214,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>158</v>
@@ -3222,16 +3228,16 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>160</v>
@@ -3245,7 +3251,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>161</v>
@@ -3254,7 +3260,7 @@
         <v>39</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>162</v>
@@ -3268,7 +3274,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>163</v>
@@ -3277,7 +3283,7 @@
         <v>39</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>164</v>
@@ -3291,7 +3297,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>165</v>
@@ -3300,7 +3306,7 @@
         <v>39</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>166</v>
@@ -3314,7 +3320,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>167</v>
@@ -3323,7 +3329,7 @@
         <v>39</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>168</v>
@@ -3337,7 +3343,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>169</v>
@@ -3346,7 +3352,7 @@
         <v>39</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>170</v>
@@ -3355,6 +3361,29 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Ulteriore cittadinanza di cui è in possesso</t>
@@ -589,14 +595,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.9921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1601,10 +1607,10 @@
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1621,7 +1627,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1630,7 +1636,7 @@
         <v>27</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1641,19 +1647,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1664,19 +1670,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1739,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1854,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1923,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1986,19 +1992,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2130,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2153,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2176,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2199,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2383,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2429,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2544,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2561,19 +2567,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2590,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2613,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2636,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2659,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2682,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2705,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2774,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2820,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2840,16 +2846,16 @@
         <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2860,16 +2866,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>128</v>
@@ -2883,7 +2889,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>129</v>
@@ -2892,7 +2898,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>130</v>
@@ -2906,7 +2912,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>131</v>
@@ -2915,7 +2921,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>132</v>
@@ -2929,7 +2935,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>133</v>
@@ -2938,7 +2944,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>134</v>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>135</v>
@@ -2961,7 +2967,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>136</v>
@@ -2975,7 +2981,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>137</v>
@@ -2984,10 +2990,10 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3067,7 +3073,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>143</v>
@@ -3076,7 +3082,7 @@
         <v>39</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>144</v>
@@ -3090,7 +3096,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>145</v>
@@ -3099,7 +3105,7 @@
         <v>39</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>146</v>
@@ -3113,7 +3119,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>147</v>
@@ -3122,7 +3128,7 @@
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>148</v>
@@ -3136,19 +3142,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3159,16 +3165,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>154</v>
@@ -3182,7 +3188,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>155</v>
@@ -3191,7 +3197,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>156</v>
@@ -3205,7 +3211,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>157</v>
@@ -3214,7 +3220,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>158</v>
@@ -3228,7 +3234,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>159</v>
@@ -3237,7 +3243,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>160</v>
@@ -3251,16 +3257,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>162</v>
@@ -3274,7 +3280,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>163</v>
@@ -3283,7 +3289,7 @@
         <v>39</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>164</v>
@@ -3297,7 +3303,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>165</v>
@@ -3306,7 +3312,7 @@
         <v>39</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>166</v>
@@ -3320,7 +3326,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>167</v>
@@ -3329,7 +3335,7 @@
         <v>39</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>168</v>
@@ -3343,7 +3349,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>169</v>
@@ -3352,7 +3358,7 @@
         <v>39</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>170</v>
@@ -3366,7 +3372,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>171</v>
@@ -3375,7 +3381,7 @@
         <v>39</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>172</v>
@@ -3384,6 +3390,29 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -312,12 +312,6 @@
   </si>
   <si>
     <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Ulteriore cittadinanza di cui è in possesso</t>
@@ -595,14 +589,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.9921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1607,10 +1601,10 @@
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1627,7 +1621,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1636,7 +1630,7 @@
         <v>27</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1647,19 +1641,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1664,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1687,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1716,19 +1710,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1733,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1756,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1779,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1802,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1825,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1848,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1871,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1894,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1917,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1940,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1963,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1986,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2009,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2032,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2055,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2078,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2101,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2124,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2147,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2170,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2193,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2216,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2239,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2262,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2285,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2308,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2331,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2354,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2377,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2400,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2423,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2446,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2469,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2492,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2515,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2538,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2561,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2584,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2607,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2630,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2653,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2676,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2699,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2722,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2745,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2768,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2791,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2814,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2846,16 +2840,16 @@
         <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,16 +2860,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>128</v>
@@ -2889,7 +2883,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>129</v>
@@ -2898,7 +2892,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>130</v>
@@ -2912,7 +2906,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>131</v>
@@ -2921,7 +2915,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>132</v>
@@ -2935,7 +2929,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>133</v>
@@ -2944,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>134</v>
@@ -2958,7 +2952,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>135</v>
@@ -2967,7 +2961,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>136</v>
@@ -2981,7 +2975,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>137</v>
@@ -2990,10 +2984,10 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,19 +2998,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3021,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3044,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3073,7 +3067,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>143</v>
@@ -3082,7 +3076,7 @@
         <v>39</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>144</v>
@@ -3096,7 +3090,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>145</v>
@@ -3105,7 +3099,7 @@
         <v>39</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>146</v>
@@ -3119,7 +3113,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>147</v>
@@ -3128,7 +3122,7 @@
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>148</v>
@@ -3142,19 +3136,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3165,16 +3159,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>154</v>
@@ -3188,7 +3182,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>155</v>
@@ -3197,7 +3191,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>156</v>
@@ -3211,7 +3205,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>157</v>
@@ -3220,7 +3214,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>158</v>
@@ -3234,7 +3228,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>159</v>
@@ -3243,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>160</v>
@@ -3257,16 +3251,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>162</v>
@@ -3280,7 +3274,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>163</v>
@@ -3289,7 +3283,7 @@
         <v>39</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>164</v>
@@ -3303,7 +3297,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>165</v>
@@ -3312,7 +3306,7 @@
         <v>39</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>166</v>
@@ -3326,7 +3320,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>167</v>
@@ -3335,7 +3329,7 @@
         <v>39</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>168</v>
@@ -3349,7 +3343,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>169</v>
@@ -3358,7 +3352,7 @@
         <v>39</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>170</v>
@@ -3372,7 +3366,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>171</v>
@@ -3381,7 +3375,7 @@
         <v>39</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>172</v>
@@ -3390,29 +3384,6 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,6 +164,18 @@
     <t>sesso</t>
   </si>
   <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
     <t>Data nascita</t>
   </si>
   <si>
@@ -399,6 +411,9 @@
   </si>
   <si>
     <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -595,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1032,7 +1047,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>40</v>
@@ -1055,7 +1070,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -1101,7 +1116,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>40</v>
@@ -1124,7 +1139,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -1216,7 +1231,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>40</v>
@@ -1239,7 +1254,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>40</v>
@@ -1262,7 +1277,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>40</v>
@@ -1285,7 +1300,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>40</v>
@@ -1538,7 +1553,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>40</v>
@@ -1561,7 +1576,7 @@
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>40</v>
@@ -1607,7 +1622,7 @@
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>40</v>
@@ -1633,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1650,16 +1665,16 @@
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1685,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1708,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1716,19 +1731,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1754,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1777,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1800,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1823,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1846,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1869,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1877,7 +1892,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>111</v>
@@ -1886,10 +1901,10 @@
         <v>39</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1900,7 +1915,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>112</v>
@@ -1909,10 +1924,10 @@
         <v>39</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1938,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1961,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1984,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1992,19 +2007,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2030,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2053,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2061,7 +2076,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>117</v>
@@ -2070,10 +2085,10 @@
         <v>39</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2084,7 +2099,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>118</v>
@@ -2093,10 +2108,10 @@
         <v>39</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2122,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2130,7 +2145,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>120</v>
@@ -2139,10 +2154,10 @@
         <v>39</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2153,7 +2168,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>121</v>
@@ -2162,10 +2177,10 @@
         <v>39</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2176,7 +2191,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>122</v>
@@ -2185,10 +2200,10 @@
         <v>39</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2214,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2237,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2260,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2283,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2306,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2329,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2352,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2375,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2398,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2421,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2444,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2467,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2490,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2513,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2536,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2559,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2567,7 +2582,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>113</v>
@@ -2576,10 +2591,10 @@
         <v>39</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,7 +2605,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>114</v>
@@ -2599,10 +2614,10 @@
         <v>39</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2628,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2636,7 +2651,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>116</v>
@@ -2645,10 +2660,10 @@
         <v>39</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2674,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2697,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2720,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2743,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2766,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2789,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2812,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2835,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2858,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2881,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2904,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2927,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2950,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2973,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2996,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,318 +3019,318 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3341,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3349,19 +3364,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3387,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3395,24 +3410,162 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>18</v>
       </c>
     </row>
